--- a/data/trans_orig/IP36_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP36_2023-Edad-trans_orig.xlsx
@@ -717,7 +717,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>60,71%</t>
+          <t>50,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -738,7 +738,7 @@
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>40,04%</t>
+          <t>47,57%</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,84%</t>
+          <t>78,16%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -951,7 +951,7 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>31,82%</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>64,43%</t>
+          <t>63,0%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>48,61%</t>
+          <t>43,02%</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34,6%</t>
+          <t>34,99%</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>21,84%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>36,06%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>91,11%</t>
         </is>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>35,4%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>13,81%</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>28,86%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>50,86%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
@@ -1518,12 +1518,12 @@
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>28,23%</t>
         </is>
       </c>
     </row>
@@ -1547,12 +1547,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>41,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1568,12 +1568,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>67,53%</t>
+          <t>71,45%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1589,12 +1589,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>44,05%</t>
+          <t>44,71%</t>
         </is>
       </c>
     </row>
@@ -1760,12 +1760,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,82%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>40,42%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>44,4%</t>
+          <t>49,91%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>30,98%</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>32,12%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>79,69%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1852,12 +1852,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>9,23%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>72,01%</t>
+          <t>73,08%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1873,12 +1873,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>70,54%</t>
+          <t>66,87%</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>10,99%</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>44,6%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>39,18%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>30,91%</t>
         </is>
       </c>
     </row>
@@ -2190,12 +2190,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>53,14%</t>
+          <t>57,87%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2211,12 +2211,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>23,46%</t>
+          <t>23,62%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68,33%</t>
+          <t>68,29%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2232,12 +2232,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>55,58%</t>
+          <t>56,58%</t>
         </is>
       </c>
     </row>
@@ -2474,12 +2474,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>85,14%</t>
+          <t>87,71%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2495,12 +2495,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,23%</t>
+          <t>19,72%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>63,4%</t>
+          <t>64,82%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2516,12 +2516,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>29,78%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>64,82%</t>
+          <t>65,32%</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,16%</t>
+          <t>13,74%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2717,7 +2717,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>27,37%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2733,12 +2733,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>12,73%</t>
         </is>
       </c>
     </row>
@@ -2762,12 +2762,12 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
@@ -2783,12 +2783,12 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>15,87%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>48,1%</t>
+          <t>47,59%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>11,6%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>33,02%</t>
         </is>
       </c>
     </row>
@@ -2833,12 +2833,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>56,43%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2854,12 +2854,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>19,57%</t>
+          <t>19,35%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>51,84%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2875,12 +2875,12 @@
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>50,18%</t>
         </is>
       </c>
     </row>
@@ -2909,7 +2909,7 @@
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,74%</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,5%</t>
         </is>
       </c>
     </row>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>28,26%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>18,3%</t>
         </is>
       </c>
     </row>
@@ -3117,12 +3117,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>21,07%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>54,96%</t>
+          <t>54,46%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>42,84%</t>
+          <t>41,69%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3159,12 +3159,12 @@
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>44,19%</t>
+          <t>43,65%</t>
         </is>
       </c>
     </row>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,31%</t>
         </is>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3376,12 +3376,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>7,58%</t>
+          <t>8,37%</t>
         </is>
       </c>
     </row>
@@ -3405,12 +3405,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>23,61%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3426,12 +3426,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>30,07%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3447,12 +3447,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>10,14%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>23,3%</t>
+          <t>23,75%</t>
         </is>
       </c>
     </row>
@@ -3476,12 +3476,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>18,58%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3497,12 +3497,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>46,94%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3518,12 +3518,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>41,51%</t>
+          <t>41,73%</t>
         </is>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -3689,12 +3689,12 @@
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
@@ -3731,12 +3731,12 @@
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>10,96%</t>
         </is>
       </c>
     </row>
@@ -3760,12 +3760,12 @@
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>34,24%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>60,46%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>45,43%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
@@ -3802,12 +3802,12 @@
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>31,99%</t>
+          <t>31,27%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>48,76%</t>
+          <t>48,23%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/IP36_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP36_2023-Edad-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal original" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,13 +537,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Adultos según su situación laboral actual en 2023 (Tasa respuesta: 7,19%)</t>
+          <t>Adultos según su situación laboral actual en 2023 (Tasa respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -552,7 +552,7 @@
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="I1" s="3" t="n"/>
@@ -679,66 +679,66 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0</v>
+        <v>2114</v>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,12%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11,58%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>860</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>30,57%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>494</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>14,69%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>50,73%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>494</v>
+        <v>2974</v>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>6,34%</t>
         </is>
       </c>
     </row>
@@ -750,24 +750,24 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -788,28 +788,28 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>1,88%</t>
         </is>
       </c>
     </row>
@@ -838,49 +838,49 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -892,66 +892,66 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>352</v>
+        <v>7216</v>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,19%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,88%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>78,16%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0</v>
+        <v>7150</v>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,64%</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>352</v>
+        <v>14366</v>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>12,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>31,82%</t>
+          <t>17,19%</t>
         </is>
       </c>
     </row>
@@ -980,49 +980,49 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23,25%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -1034,35 +1034,35 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="H9" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>542</v>
+        <v>1038</v>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1072,28 +1072,28 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63,0%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>542</v>
+        <v>1577</v>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>43,02%</t>
+          <t>3,92%</t>
         </is>
       </c>
     </row>
@@ -1105,66 +1105,66 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0</v>
+        <v>7758</v>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,57%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>396</v>
+        <v>8510</v>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>13,85%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>23,16%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>396</v>
+        <v>16269</v>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>34,99%</t>
+          <t>19,36%</t>
         </is>
       </c>
     </row>
@@ -1176,66 +1176,66 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>1481</v>
+        <v>39438</v>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,81%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,84%</t>
+          <t>59,36%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>77,4%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1932</v>
+        <v>42912</v>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>57,43%</t>
+          <t>69,84%</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>60,84%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>78,48%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3414</v>
+        <v>82351</v>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>65,67%</t>
+          <t>69,23%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>75,28%</t>
         </is>
       </c>
     </row>
@@ -1247,10 +1247,10 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1833</v>
+        <v>57511</v>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
         </is>
       </c>
       <c r="H12" s="2" t="n">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>3365</v>
+        <v>61444</v>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="M12" s="2" t="n">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5199</v>
+        <v>118955</v>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
@@ -1322,35 +1322,35 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0</v>
+        <v>2404</v>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1360,28 +1360,28 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>494</v>
+        <v>2923</v>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>13,81%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -1393,66 +1393,66 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0</v>
+        <v>2693</v>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0</v>
+        <v>4169</v>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0</v>
+        <v>6862</v>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>3,68%</t>
         </is>
       </c>
     </row>
@@ -1464,66 +1464,66 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>908</v>
+        <v>2729</v>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="H15" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>652</v>
+        <v>2937</v>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1560</v>
+        <v>5666</v>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1535,66 +1535,66 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1780</v>
+        <v>19676</v>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>41,85%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>2094</v>
+        <v>25967</v>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>71,45%</t>
+          <t>19,03%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>3874</v>
+        <v>45643</v>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>44,71%</t>
+          <t>16,63%</t>
         </is>
       </c>
     </row>
@@ -1606,66 +1606,66 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>1450</v>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0</v>
+        <v>3825</v>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0</v>
+        <v>5275</v>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>3,04%</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9,99%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>0,36%</t>
         </is>
       </c>
     </row>
@@ -1748,66 +1748,66 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1687</v>
+        <v>21402</v>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>13,44%</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>40,42%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>656</v>
+        <v>24720</v>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>49,91%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2343</v>
+        <v>46122</v>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>13,49%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>17,15%</t>
         </is>
       </c>
     </row>
@@ -1819,66 +1819,66 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>5694</v>
+        <v>108945</v>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>56,55%</t>
+          <t>68,39%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>61,57%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>79,1%</t>
+          <t>74,25%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>2350</v>
+        <v>120417</v>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>65,96%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>9,23%</t>
+          <t>59,89%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>73,08%</t>
+          <t>71,48%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
-        <v>13</v>
+        <v>360</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>8044</v>
+        <v>229362</v>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>49,3%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>62,43%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>66,87%</t>
+          <t>71,52%</t>
         </is>
       </c>
     </row>
@@ -1890,10 +1890,10 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>10070</v>
+        <v>159299</v>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="H21" s="2" t="n">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>6246</v>
+        <v>182554</v>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
@@ -1932,10 +1932,10 @@
         </is>
       </c>
       <c r="M21" s="2" t="n">
-        <v>28</v>
+        <v>534</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>16315</v>
+        <v>341853</v>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
@@ -1982,49 +1982,49 @@
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
+        <v>2799</v>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>0</v>
+        <v>2799</v>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>1,82%</t>
         </is>
       </c>
     </row>
@@ -2036,66 +2036,66 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0</v>
+        <v>3439</v>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>573</v>
+        <v>4088</v>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>4,1%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>26,38%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>573</v>
+        <v>7527</v>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -2107,66 +2107,66 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1206</v>
+        <v>6423</v>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>14,84%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>6,8%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>1613</v>
+        <v>7981</v>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>39,18%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2819</v>
+        <v>14404</v>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>30,91%</t>
+          <t>5,69%</t>
         </is>
       </c>
     </row>
@@ -2178,66 +2178,66 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1934</v>
+        <v>29357</v>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,34%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>57,87%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>6410</v>
+        <v>27853</v>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>13,11%</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>23,62%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>68,29%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>8344</v>
+        <v>57211</v>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>37,78%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>56,58%</t>
+          <t>18,42%</t>
         </is>
       </c>
     </row>
@@ -2249,66 +2249,66 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
+        <v>4470</v>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>5,11%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>2663</v>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>14,51%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0</v>
+        <v>7133</v>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>3,41%</t>
         </is>
       </c>
     </row>
@@ -2320,66 +2320,66 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
+          <t>0,2%</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="M27" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>0</v>
+        <v>1225</v>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="P27" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>1,16%</t>
         </is>
       </c>
     </row>
@@ -2391,66 +2391,66 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0</v>
+        <v>22308</v>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>18917</v>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>0</v>
+        <v>41225</v>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>5,78%</t>
+          <t>14,09%</t>
         </is>
       </c>
     </row>
@@ -2462,66 +2462,66 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>4984</v>
+        <v>107092</v>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>61,35%</t>
+          <t>61,59%</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>54,53%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
-        <v>8</v>
+        <v>166</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>5368</v>
+        <v>147763</v>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>69,54%</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>19,72%</t>
+          <t>63,12%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>64,82%</t>
+          <t>75,11%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
-        <v>15</v>
+        <v>316</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>10352</v>
+        <v>254856</v>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>65,96%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>61,2%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>65,32%</t>
+          <t>70,64%</t>
         </is>
       </c>
     </row>
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>8124</v>
+        <v>173888</v>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="H30" s="2" t="n">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>13964</v>
+        <v>212490</v>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
@@ -2575,10 +2575,10 @@
         </is>
       </c>
       <c r="M30" s="2" t="n">
-        <v>32</v>
+        <v>477</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>22089</v>
+        <v>386378</v>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
@@ -2608,66 +2608,66 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0</v>
+        <v>1358</v>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0</v>
+        <v>2412</v>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>0</v>
+        <v>3771</v>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>1,53%</t>
         </is>
       </c>
     </row>
@@ -2679,66 +2679,66 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>657</v>
+        <v>4262</v>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>3,41%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>1640</v>
+        <v>6568</v>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>7,43%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2298</v>
+        <v>10831</v>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>3,14%</t>
         </is>
       </c>
     </row>
@@ -2750,66 +2750,66 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>3340</v>
+        <v>12322</v>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>33,33%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="H33" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>6530</v>
+        <v>6292</v>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>47,59%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="M33" s="2" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>9871</v>
+        <v>18613</v>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>20,61%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
         <is>
-          <t>33,02%</t>
+          <t>4,74%</t>
         </is>
       </c>
     </row>
@@ -2821,66 +2821,66 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>9530</v>
+        <v>45324</v>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>7686</v>
+        <v>44788</v>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>34,83%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>19,35%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>51,84%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>17215</v>
+        <v>90112</v>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>18,87%</t>
         </is>
       </c>
     </row>
@@ -2892,66 +2892,66 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>661</v>
+        <v>5618</v>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>5536</v>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>661</v>
+        <v>11153</v>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -2963,35 +2963,35 @@
         </is>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>541</v>
+        <v>1236</v>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -3001,18 +3001,18 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>541</v>
+        <v>1764</v>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>1,14%</t>
         </is>
       </c>
     </row>
@@ -3034,66 +3034,66 @@
         </is>
       </c>
       <c r="C37" s="2" t="n">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2159</v>
+        <v>55645</v>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>45,52%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>46896</v>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,35%</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>5,61%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
-        <v>2</v>
+        <v>84</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2159</v>
+        <v>102540</v>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>31,63%</t>
         </is>
       </c>
     </row>
@@ -3105,66 +3105,66 @@
         </is>
       </c>
       <c r="C38" s="2" t="n">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>9473</v>
+        <v>150401</v>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>36,69%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>54,46%</t>
+          <t>62,81%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>9</v>
+        <v>215</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>5671</v>
+        <v>191755</v>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>62,77%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>56,65%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>41,69%</t>
+          <t>69,56%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
-        <v>24</v>
+        <v>425</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>15144</v>
+        <v>342155</v>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>58,9%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>50,08%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>43,65%</t>
+          <t>63,87%</t>
         </is>
       </c>
     </row>
@@ -3176,10 +3176,10 @@
         </is>
       </c>
       <c r="C39" s="2" t="n">
-        <v>33</v>
+        <v>342</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>25821</v>
+        <v>275458</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -3197,10 +3197,10 @@
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>33</v>
+        <v>342</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>22068</v>
+        <v>305483</v>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
@@ -3218,10 +3218,10 @@
         </is>
       </c>
       <c r="M39" s="2" t="n">
-        <v>66</v>
+        <v>684</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>47889</v>
+        <v>580940</v>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
@@ -3251,66 +3251,66 @@
         </is>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0</v>
+        <v>5875</v>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>988</v>
+        <v>6591</v>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>988</v>
+        <v>12466</v>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>1,37%</t>
         </is>
       </c>
     </row>
@@ -3322,66 +3322,66 @@
         </is>
       </c>
       <c r="C41" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>657</v>
+        <v>10839</v>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>2213</v>
+        <v>14826</v>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>2871</v>
+        <v>25665</v>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>2,48%</t>
         </is>
       </c>
     </row>
@@ -3393,66 +3393,66 @@
         </is>
       </c>
       <c r="C42" s="2" t="n">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>5455</v>
+        <v>21474</v>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>23,61%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>8795</v>
+        <v>17605</v>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>2,31%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>14250</v>
+        <v>39079</v>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>23,75%</t>
+          <t>3,61%</t>
         </is>
       </c>
     </row>
@@ -3464,66 +3464,66 @@
         </is>
       </c>
       <c r="C43" s="2" t="n">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>13596</v>
+        <v>101573</v>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>29,65%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>18,58%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
-        <v>23</v>
+        <v>134</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>16190</v>
+        <v>105758</v>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>35,47%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>24,43%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>46,94%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>29786</v>
+        <v>207331</v>
       </c>
       <c r="O43" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>24,49%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>41,73%</t>
+          <t>16,39%</t>
         </is>
       </c>
     </row>
@@ -3535,66 +3535,66 @@
         </is>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>661</v>
+        <v>11538</v>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>0</v>
+        <v>12601</v>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>661</v>
+        <v>24139</v>
       </c>
       <c r="O44" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>2,38%</t>
         </is>
       </c>
     </row>
@@ -3606,66 +3606,66 @@
         </is>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0</v>
+        <v>1866</v>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0,08%</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="H45" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>1083</v>
+        <v>2700</v>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="M45" s="2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>1083</v>
+        <v>4566</v>
       </c>
       <c r="O45" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>0,71%</t>
         </is>
       </c>
     </row>
@@ -3677,66 +3677,66 @@
         </is>
       </c>
       <c r="C46" s="2" t="n">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>3846</v>
+        <v>107113</v>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>16,08%</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>20,63%</t>
+          <t>28,62%</t>
         </is>
       </c>
       <c r="H46" s="2" t="n">
-        <v>2</v>
+        <v>128</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>1052</v>
+        <v>99043</v>
       </c>
       <c r="J46" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="M46" s="2" t="n">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>4898</v>
+        <v>206155</v>
       </c>
       <c r="O46" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>20,14%</t>
         </is>
       </c>
     </row>
@@ -3748,66 +3748,66 @@
         </is>
       </c>
       <c r="C47" s="2" t="n">
-        <v>35</v>
+        <v>615</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>21632</v>
+        <v>405877</v>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>47,18%</t>
+          <t>60,93%</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>34,24%</t>
+          <t>51,9%</t>
         </is>
       </c>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>60,46%</t>
+          <t>65,17%</t>
         </is>
       </c>
       <c r="H47" s="2" t="n">
-        <v>25</v>
+        <v>643</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>15321</v>
+        <v>502848</v>
       </c>
       <c r="J47" s="2" t="inlineStr">
         <is>
-          <t>33,57%</t>
+          <t>65,99%</t>
         </is>
       </c>
       <c r="K47" s="2" t="inlineStr">
         <is>
-          <t>23,19%</t>
+          <t>62,48%</t>
         </is>
       </c>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>45,43%</t>
+          <t>69,18%</t>
         </is>
       </c>
       <c r="M47" s="2" t="n">
-        <v>60</v>
+        <v>1258</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>36954</v>
+        <v>908725</v>
       </c>
       <c r="O47" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>63,63%</t>
         </is>
       </c>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>60,11%</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
         <is>
-          <t>48,23%</t>
+          <t>66,26%</t>
         </is>
       </c>
     </row>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="C48" s="2" t="n">
-        <v>68</v>
+        <v>943</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45848</v>
+        <v>666155</v>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="H48" s="2" t="n">
-        <v>70</v>
+        <v>977</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45643</v>
+        <v>761972</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
@@ -3861,10 +3861,10 @@
         </is>
       </c>
       <c r="M48" s="2" t="n">
-        <v>138</v>
+        <v>1920</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>91491</v>
+        <v>1428127</v>
       </c>
       <c r="O48" s="2" t="inlineStr">
         <is>
